--- a/data/trans_bre/P2B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.816263393763618</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.11957694828074</v>
+        <v>7.119576948280737</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1743779272806233</v>
@@ -649,7 +649,7 @@
         <v>0.2672510793857873</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3834745436326398</v>
+        <v>0.3834745436326397</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.22941255760394</v>
+        <v>-9.861411768300577</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.895111659355606</v>
+        <v>-6.554291157714791</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5926295976915227</v>
+        <v>0.7206394352075544</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.992478600918196</v>
+        <v>-5.898932898631297</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.411370630491568</v>
+        <v>-0.4122166430522793</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1295093196439139</v>
+        <v>-0.1215379549569306</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01408921200183102</v>
+        <v>0.0163199116303452</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2023228817104414</v>
+        <v>-0.229767425686833</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.08543401866895</v>
+        <v>2.54112370758864</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.882612011452748</v>
+        <v>9.877819724778945</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.72020148678086</v>
+        <v>18.22023196147629</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.27997480028041</v>
+        <v>18.90801373976528</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2060561962927059</v>
+        <v>0.173632383244055</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2150837104344379</v>
+        <v>0.2161628827845833</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.596236672357444</v>
+        <v>0.5567890302979861</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.648438240031754</v>
+        <v>1.563698482393514</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>9.131781299229658</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.256747865158576</v>
+        <v>2.25674786515857</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1683768100155091</v>
@@ -749,7 +749,7 @@
         <v>0.1626666026841613</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.07178055439636516</v>
+        <v>0.07178055439636498</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.385351110076934</v>
+        <v>-1.155984803448859</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>14.03660478760555</v>
+        <v>13.70093919961731</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.843121619233457</v>
+        <v>1.154799384695177</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.313891334195409</v>
+        <v>-8.678594238517476</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04341993819827342</v>
+        <v>-0.035816688775612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.239340545510379</v>
+        <v>0.2315439537452745</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04931408490066543</v>
+        <v>0.01856606845104736</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2144981594757424</v>
+        <v>-0.2126963283628978</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.15737718296735</v>
+        <v>11.13753722097767</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>26.38223909961319</v>
+        <v>26.27104475859319</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.62654254079027</v>
+        <v>15.82053684530577</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.47679234443594</v>
+        <v>12.2344300927783</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4114732229661681</v>
+        <v>0.4265639049894458</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5110379337726668</v>
+        <v>0.5096188136165286</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3279859530025559</v>
+        <v>0.3047554065953878</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4752917296815445</v>
+        <v>0.5172590523011947</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.83626100261093</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-3.259063136507306</v>
+        <v>-3.259063136507312</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1120943133292181</v>
@@ -849,7 +849,7 @@
         <v>0.06271353298951785</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.09899347111875932</v>
+        <v>-0.09899347111875945</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.201923720238382</v>
+        <v>-2.02051717528591</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.226572832139453</v>
+        <v>-0.9469130606459245</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.41302274670678</v>
+        <v>-2.391276116511769</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.36789735247471</v>
+        <v>-9.009055458485879</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.07287026640563996</v>
+        <v>-0.06652852037068181</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.01606149471187209</v>
+        <v>-0.01260233026657351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.02195468240967046</v>
+        <v>-0.03772717713483154</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2522496575022601</v>
+        <v>-0.2482361598182985</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.631458343181626</v>
+        <v>8.614126999075474</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.923494964843769</v>
+        <v>8.734845186516505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.09141167471398</v>
+        <v>9.690385638576872</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.441967782441591</v>
+        <v>2.799370320417204</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.368681058914844</v>
+        <v>0.3519942542311844</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1269234582675224</v>
+        <v>0.1259756688902958</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.174761413735036</v>
+        <v>0.1677895277519204</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1198368041946426</v>
+        <v>0.09661311724789068</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.5262539689798174</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.8597193443818929</v>
+        <v>-0.859719344381904</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2035698785731475</v>
@@ -949,7 +949,7 @@
         <v>-0.01284287820735461</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.0343547710788401</v>
+        <v>-0.03435477107884054</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.88049162532302</v>
+        <v>-2.064008084419806</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-16.70569215236426</v>
+        <v>-16.74186791610665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.604830251241567</v>
+        <v>-7.244369089607757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.076098127985015</v>
+        <v>-5.596729446410389</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1013479158256094</v>
+        <v>-0.1203844657020699</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2914117537172834</v>
+        <v>-0.2899113680203944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1500464283081783</v>
+        <v>-0.1601390541690046</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2172046057109421</v>
+        <v>-0.1989950208219077</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.601398400441006</v>
+        <v>8.966750096883388</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-3.539588071073561</v>
+        <v>-3.968150206859113</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.949104395803372</v>
+        <v>5.920930386605321</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.515396146477796</v>
+        <v>4.550741900996616</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6219407727770295</v>
+        <v>0.675882825170388</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.06775584486901562</v>
+        <v>-0.07566245222234411</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1561143822907096</v>
+        <v>0.1643309395260817</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2049714318176568</v>
+        <v>0.2081619015780203</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1456060907444376</v>
+        <v>0.3914258939777902</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.551008022492561</v>
+        <v>-4.302999563479299</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.986014534810756</v>
+        <v>-3.631529350106436</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.684650363898609</v>
+        <v>-4.584333147992955</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01101702615937315</v>
+        <v>0.007468765694773494</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1417900945359642</v>
+        <v>-0.1274412288842564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1424708050311322</v>
+        <v>-0.1330771208223458</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2087368520356888</v>
+        <v>-0.204250438851018</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.88926340395534</v>
+        <v>11.93850411463309</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.942886001245366</v>
+        <v>8.981676217393654</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.3372462736647</v>
+        <v>9.1186380700589</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.186070975667967</v>
+        <v>5.225283905342311</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.043209419385639</v>
+        <v>1.013028966798632</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3356877128979301</v>
+        <v>0.3429285084584283</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4641246516095595</v>
+        <v>0.4570031621353753</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3213263004851059</v>
+        <v>0.3357009546399483</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>5.060377465862537</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.204979999884254</v>
+        <v>5.204979999884252</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6697172079344788</v>
@@ -1149,7 +1149,7 @@
         <v>0.2274718948404657</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4530899132579276</v>
+        <v>0.4530899132579273</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.552499066824931</v>
+        <v>3.854821513698701</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-10.69650501555232</v>
+        <v>-10.17227190770132</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.607758200628685</v>
+        <v>-1.748709345533615</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.391973900142728</v>
+        <v>1.364315406192178</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2006648255436587</v>
+        <v>0.2169837006169833</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3240223708434283</v>
+        <v>-0.3105944240344035</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.06741123408740826</v>
+        <v>-0.07292601570490861</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.09688787193138604</v>
+        <v>0.09474232950035574</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.52817714113733</v>
+        <v>15.58758564796659</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.339813857288307</v>
+        <v>4.282135155579893</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12.18825223484364</v>
+        <v>11.60709523482839</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.08361372780714</v>
+        <v>8.728152057690837</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.391680176458682</v>
+        <v>1.352879481584796</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1296471666612078</v>
+        <v>0.169252708074129</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6274219645041672</v>
+        <v>0.6215894270449815</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9460080754845515</v>
+        <v>0.9438920413822809</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.00837925445861</v>
+        <v>-4.477562318026355</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.974035324997473</v>
+        <v>-5.816462268368753</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.535847117368569</v>
+        <v>3.247905396985777</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.03804045620342</v>
+        <v>8.760896807701474</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1218815350934154</v>
+        <v>-0.1330769106920551</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.09571235756583986</v>
+        <v>-0.1098776055145336</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09096175475085731</v>
+        <v>0.08043207320883196</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2374699308535013</v>
+        <v>0.2582694848468727</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.01191659479183</v>
+        <v>11.62349271972571</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.95661046928901</v>
+        <v>11.96134900346275</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.26317301727957</v>
+        <v>19.9915465527127</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.08888855868917</v>
+        <v>19.46156595894631</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.493837759114257</v>
+        <v>0.4924685170309377</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3191098244440917</v>
+        <v>0.2905227170768522</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5971091598827791</v>
+        <v>0.6085240207876694</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7298628289178716</v>
+        <v>0.748001776724206</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>5.339547642261238</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3.66558450565479</v>
+        <v>3.665584505654795</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1994589171846545</v>
@@ -1349,7 +1349,7 @@
         <v>0.1282881604406794</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1524267439584396</v>
+        <v>0.1524267439584398</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.838468544529067</v>
+        <v>2.094536610340231</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.2480159247414332</v>
+        <v>-0.3970658107834502</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.638472602441384</v>
+        <v>2.563771925565693</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.248898721709579</v>
+        <v>1.230123329073517</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08344993447248172</v>
+        <v>0.09368781357187841</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.004462165255693227</v>
+        <v>-0.007741884013044361</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06145169763605939</v>
+        <v>0.06029524956935145</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.0485247103652443</v>
+        <v>0.04779045028000228</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.728180299344579</v>
+        <v>6.766273007693741</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.016170237641985</v>
+        <v>4.978092709752826</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8.01423003599006</v>
+        <v>8.068235530903056</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.925443940396426</v>
+        <v>5.97227486999901</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3291212225884413</v>
+        <v>0.3353103808729127</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.100714022819172</v>
+        <v>0.09744356630668034</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2007797902050981</v>
+        <v>0.201591727308202</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2653785663012232</v>
+        <v>0.2656016876234636</v>
       </c>
     </row>
     <row r="28">
